--- a/biology/Mycologie/Dépérissement_du_kauri/Dépérissement_du_kauri.xlsx
+++ b/biology/Mycologie/Dépérissement_du_kauri/Dépérissement_du_kauri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9p%C3%A9rissement_du_kauri</t>
+          <t>Dépérissement_du_kauri</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le dépérissement du kauri est une maladie cryptogamique incurable et mortelle, causée par une espèce de pseudo-champignons oomycètes, Phytophthora agathidicida, qui affecte le kauri néo-zélandais (Agathis australis). Cette maladie a été découverte dans les années 1970 sur l'île de la Grande Barrière, mais s'est depuis répandue dans les îles principales. Il semble que ce micro-organisme soit présent en Nouvelle-Zélande depuis des siècles, probablement même avant l'arrivée de l'homme, et qu'il ne soit devenu un danger pour le kauri que récemment[1].
-La maladie est d'origine tellurique. Elle se répand par le sol dans la boue infectée, transmise d'arbre en arbre principalement par des personnes. 71 % des arbres infectés dans la chaîne des Waitakere (en) se trouvent à moins de 50 mètres d'un sentier[2].
+Le dépérissement du kauri est une maladie cryptogamique incurable et mortelle, causée par une espèce de pseudo-champignons oomycètes, Phytophthora agathidicida, qui affecte le kauri néo-zélandais (Agathis australis). Cette maladie a été découverte dans les années 1970 sur l'île de la Grande Barrière, mais s'est depuis répandue dans les îles principales. Il semble que ce micro-organisme soit présent en Nouvelle-Zélande depuis des siècles, probablement même avant l'arrivée de l'homme, et qu'il ne soit devenu un danger pour le kauri que récemment.
+La maladie est d'origine tellurique. Elle se répand par le sol dans la boue infectée, transmise d'arbre en arbre principalement par des personnes. 71 % des arbres infectés dans la chaîne des Waitakere (en) se trouvent à moins de 50 mètres d'un sentier.
 </t>
         </is>
       </c>
